--- a/Code/Results/Cases/Case_0_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_170/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02849078099428226</v>
+        <v>0.01509998495488674</v>
       </c>
       <c r="D2">
-        <v>0.3042411732013903</v>
+        <v>0.1667493158925453</v>
       </c>
       <c r="E2">
-        <v>0.7217998869475437</v>
+        <v>0.2567807369960775</v>
       </c>
       <c r="F2">
-        <v>0.7080380266728383</v>
+        <v>1.160573058580006</v>
       </c>
       <c r="G2">
-        <v>1.160351986372191</v>
+        <v>0.8432839204109825</v>
       </c>
       <c r="H2">
-        <v>0.4935335644750438</v>
+        <v>0.8743153596641946</v>
       </c>
       <c r="I2">
-        <v>0.8191922331521013</v>
+        <v>0.7479278897184827</v>
       </c>
       <c r="J2">
-        <v>1.37615076126653</v>
+        <v>0.4192787400100997</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>34.52880685275483</v>
+        <v>10.9622247095927</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02353380515737058</v>
+        <v>0.01453200457124382</v>
       </c>
       <c r="D3">
-        <v>0.2654015050030551</v>
+        <v>0.1565091770063134</v>
       </c>
       <c r="E3">
-        <v>0.6059631989278671</v>
+        <v>0.2336856282998809</v>
       </c>
       <c r="F3">
-        <v>0.5184803381593994</v>
+        <v>1.212554290379188</v>
       </c>
       <c r="G3">
-        <v>0.8931252489549451</v>
+        <v>0.8626374261524177</v>
       </c>
       <c r="H3">
-        <v>0.3973982416543862</v>
+        <v>0.8988939228847528</v>
       </c>
       <c r="I3">
-        <v>0.6459044529394546</v>
+        <v>0.7627294601680461</v>
       </c>
       <c r="J3">
-        <v>1.139897083773405</v>
+        <v>0.3762519443778274</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>29.24163755822406</v>
+        <v>9.645719339023458</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02086999285723579</v>
+        <v>0.01419861944958711</v>
       </c>
       <c r="D4">
-        <v>0.2424105313056089</v>
+        <v>0.1502392157268986</v>
       </c>
       <c r="E4">
-        <v>0.5405642647328079</v>
+        <v>0.2196314938467196</v>
       </c>
       <c r="F4">
-        <v>0.4317595411010515</v>
+        <v>1.247343426654027</v>
       </c>
       <c r="G4">
-        <v>0.7577298378165835</v>
+        <v>0.8768852520360468</v>
       </c>
       <c r="H4">
-        <v>0.3518718882996836</v>
+        <v>0.9155250563511572</v>
       </c>
       <c r="I4">
-        <v>0.5579048435867477</v>
+        <v>0.7735178989497911</v>
       </c>
       <c r="J4">
-        <v>1.008314618429381</v>
+        <v>0.35010256972555</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.17755569357195</v>
+        <v>8.834820259949765</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01985536469315718</v>
+        <v>0.0140665178752144</v>
       </c>
       <c r="D5">
-        <v>0.2331992877865332</v>
+        <v>0.1476885769251908</v>
       </c>
       <c r="E5">
-        <v>0.5149758618096811</v>
+        <v>0.2139346389647727</v>
       </c>
       <c r="F5">
-        <v>0.4022200956220132</v>
+        <v>1.262228232202077</v>
       </c>
       <c r="G5">
-        <v>0.7081525692816371</v>
+        <v>0.8832717464590161</v>
       </c>
       <c r="H5">
-        <v>0.3359834985670886</v>
+        <v>0.9226831557936066</v>
       </c>
       <c r="I5">
-        <v>0.5256517501921181</v>
+        <v>0.7783327691857451</v>
       </c>
       <c r="J5">
-        <v>0.9571977457461287</v>
+        <v>0.339510221410535</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.96253516624648</v>
+        <v>8.503685594311264</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01969059729699296</v>
+        <v>0.01404480637508954</v>
       </c>
       <c r="D6">
-        <v>0.2316779481566016</v>
+        <v>0.1472653133601369</v>
       </c>
       <c r="E6">
-        <v>0.5107822945284184</v>
+        <v>0.2129904718546243</v>
       </c>
       <c r="F6">
-        <v>0.3976261651180053</v>
+        <v>1.264742185929649</v>
       </c>
       <c r="G6">
-        <v>0.7002200555520517</v>
+        <v>0.884366861250129</v>
       </c>
       <c r="H6">
-        <v>0.3334887945648433</v>
+        <v>0.9238945649214116</v>
       </c>
       <c r="I6">
-        <v>0.5204898101092041</v>
+        <v>0.7791572890568901</v>
       </c>
       <c r="J6">
-        <v>0.9488404515135755</v>
+        <v>0.3377551090127326</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.76252494843482</v>
+        <v>8.448658298327871</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02085604885013481</v>
+        <v>0.01419682280996426</v>
       </c>
       <c r="D7">
-        <v>0.2422857293917531</v>
+        <v>0.1502047989767732</v>
       </c>
       <c r="E7">
-        <v>0.5402152800979039</v>
+        <v>0.2195545431317996</v>
       </c>
       <c r="F7">
-        <v>0.4313395059481664</v>
+        <v>1.247541320664041</v>
       </c>
       <c r="G7">
-        <v>0.7570403419878744</v>
+        <v>0.8769690511858954</v>
       </c>
       <c r="H7">
-        <v>0.3516476333705896</v>
+        <v>0.9156200596305553</v>
       </c>
       <c r="I7">
-        <v>0.5574563882778847</v>
+        <v>0.7735811513408919</v>
       </c>
       <c r="J7">
-        <v>1.007616062188731</v>
+        <v>0.3499594645880109</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.16104678637379</v>
+        <v>8.83035729583321</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02668498298938715</v>
+        <v>0.01490089162074071</v>
       </c>
       <c r="D8">
-        <v>0.2906298976555775</v>
+        <v>0.1632148744426303</v>
       </c>
       <c r="E8">
-        <v>0.6803984180671421</v>
+        <v>0.2487903938478411</v>
       </c>
       <c r="F8">
-        <v>0.6353343190592113</v>
+        <v>1.177891311432866</v>
       </c>
       <c r="G8">
-        <v>1.061108384573515</v>
+        <v>0.849457582398955</v>
       </c>
       <c r="H8">
-        <v>0.4570631967291092</v>
+        <v>0.8824665755510921</v>
       </c>
       <c r="I8">
-        <v>0.7548983088710699</v>
+        <v>0.7526731091818561</v>
       </c>
       <c r="J8">
-        <v>1.291253865473095</v>
+        <v>0.4043847226512014</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>32.65921028726979</v>
+        <v>10.50879697590932</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.04303167851043099</v>
+        <v>0.01640866313633893</v>
       </c>
       <c r="D9">
-        <v>0.3966401703766707</v>
+        <v>0.1888690344609074</v>
       </c>
       <c r="E9">
-        <v>1.029791641623291</v>
+        <v>0.3071999425101239</v>
       </c>
       <c r="F9">
-        <v>1.394460863534377</v>
+        <v>1.064752511115032</v>
       </c>
       <c r="G9">
-        <v>2.004170757450794</v>
+        <v>0.8149209456678221</v>
       </c>
       <c r="H9">
-        <v>0.8248398919788542</v>
+        <v>0.8299623102788445</v>
       </c>
       <c r="I9">
-        <v>1.363053411197157</v>
+        <v>0.7255759725060713</v>
       </c>
       <c r="J9">
-        <v>2.022473162911012</v>
+        <v>0.513448377316962</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>47.76506952401581</v>
+        <v>13.78226485224189</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06450160800110183</v>
+        <v>0.01760186035081546</v>
       </c>
       <c r="D10">
-        <v>0.4962805775275285</v>
+        <v>0.2078111265351765</v>
       </c>
       <c r="E10">
-        <v>1.430513203582592</v>
+        <v>0.3508902711183026</v>
       </c>
       <c r="F10">
-        <v>2.570749459688969</v>
+        <v>0.9968375219392982</v>
       </c>
       <c r="G10">
-        <v>3.288361883831612</v>
+        <v>0.8022975816409144</v>
       </c>
       <c r="H10">
-        <v>1.365011619477741</v>
+        <v>0.7994230584910724</v>
       </c>
       <c r="I10">
-        <v>2.182395420554712</v>
+        <v>0.7147250382995907</v>
       </c>
       <c r="J10">
-        <v>2.89662364310675</v>
+        <v>0.5953084369811279</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>63.29762739886155</v>
+        <v>16.18022664409892</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08350235887836277</v>
+        <v>0.01816514429425808</v>
       </c>
       <c r="D11">
-        <v>0.5631649646062868</v>
+        <v>0.2164513094042491</v>
       </c>
       <c r="E11">
-        <v>1.754229039139901</v>
+        <v>0.3709643270364467</v>
       </c>
       <c r="F11">
-        <v>3.660557777898674</v>
+        <v>0.9694482580049026</v>
       </c>
       <c r="G11">
-        <v>4.394348216679703</v>
+        <v>0.799528438829185</v>
       </c>
       <c r="H11">
-        <v>1.847023179384166</v>
+        <v>0.78736622679682</v>
       </c>
       <c r="I11">
-        <v>2.880908419848993</v>
+        <v>0.7118853405888785</v>
       </c>
       <c r="J11">
-        <v>3.623456678702297</v>
+        <v>0.6329988810644807</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>74.52860104292807</v>
+        <v>17.27056655318995</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09779468148224879</v>
+        <v>0.0183815612331415</v>
       </c>
       <c r="D12">
-        <v>0.6054537983550432</v>
+        <v>0.2197266915462421</v>
       </c>
       <c r="E12">
-        <v>1.986437847914544</v>
+        <v>0.378597065916324</v>
       </c>
       <c r="F12">
-        <v>4.479163962225513</v>
+        <v>0.9595983540351654</v>
       </c>
       <c r="G12">
-        <v>5.190311233458431</v>
+        <v>0.7989248775939757</v>
       </c>
       <c r="H12">
-        <v>2.199792731708328</v>
+        <v>0.7830724104677529</v>
       </c>
       <c r="I12">
-        <v>3.379655612967909</v>
+        <v>0.711122570383651</v>
       </c>
       <c r="J12">
-        <v>4.152729588207649</v>
+        <v>0.6473427580752968</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>81.90564168231833</v>
+        <v>17.68346161158689</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09372759555863297</v>
+        <v>0.01833481072044663</v>
       </c>
       <c r="D13">
-        <v>0.5939557098930521</v>
+        <v>0.2190211190474542</v>
       </c>
       <c r="E13">
-        <v>1.921089089932877</v>
+        <v>0.3769517926038759</v>
       </c>
       <c r="F13">
-        <v>4.247186563744961</v>
+        <v>0.9616962111442007</v>
       </c>
       <c r="G13">
-        <v>4.967378438391137</v>
+        <v>0.7990347869888694</v>
       </c>
       <c r="H13">
-        <v>2.100588267694121</v>
+        <v>0.7839849422094289</v>
       </c>
       <c r="I13">
-        <v>3.240306012818124</v>
+        <v>0.7112727650107047</v>
       </c>
       <c r="J13">
-        <v>4.003258581245632</v>
+        <v>0.6442502695490191</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>79.88462496014262</v>
+        <v>17.59453561829969</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08437951687459133</v>
+        <v>0.01818288565033299</v>
       </c>
       <c r="D14">
-        <v>0.5659250648292442</v>
+        <v>0.2167207051147386</v>
       </c>
       <c r="E14">
-        <v>1.768707362112764</v>
+        <v>0.3715916381482884</v>
       </c>
       <c r="F14">
-        <v>3.711006686360136</v>
+        <v>0.9686273390829001</v>
       </c>
       <c r="G14">
-        <v>4.444177995909826</v>
+        <v>0.7994697618008502</v>
       </c>
       <c r="H14">
-        <v>1.868983827062721</v>
+        <v>0.7870074777910077</v>
       </c>
       <c r="I14">
-        <v>2.912229511860787</v>
+        <v>0.7118162580688647</v>
       </c>
       <c r="J14">
-        <v>3.656293483952936</v>
+        <v>0.6341774930824045</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>75.00469801571438</v>
+        <v>17.30453505634006</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08010391408146234</v>
+        <v>0.01809023777650509</v>
       </c>
       <c r="D15">
-        <v>0.5522346332610937</v>
+        <v>0.215312101117263</v>
       </c>
       <c r="E15">
-        <v>1.697802209908843</v>
+        <v>0.3683125203380655</v>
       </c>
       <c r="F15">
-        <v>3.465012403145096</v>
+        <v>0.9729413461126768</v>
       </c>
       <c r="G15">
-        <v>4.200161781901386</v>
+        <v>0.7997946840604868</v>
       </c>
       <c r="H15">
-        <v>1.761619579773196</v>
+        <v>0.788894508259034</v>
       </c>
       <c r="I15">
-        <v>2.758726732635083</v>
+        <v>0.7121902030949201</v>
       </c>
       <c r="J15">
-        <v>3.495719608341375</v>
+        <v>0.6280171110579715</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>72.65210261653044</v>
+        <v>17.12690473414119</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06360369661855003</v>
+        <v>0.0175654747758216</v>
       </c>
       <c r="D16">
-        <v>0.4927172797694084</v>
+        <v>0.2072469540159716</v>
       </c>
       <c r="E16">
-        <v>1.414635929976839</v>
+        <v>0.3495825998969053</v>
       </c>
       <c r="F16">
-        <v>2.519779953121329</v>
+        <v>0.9986995181955791</v>
       </c>
       <c r="G16">
-        <v>3.235044832232148</v>
+        <v>0.8025398653117861</v>
       </c>
       <c r="H16">
-        <v>1.342085055765267</v>
+        <v>0.8002486068158703</v>
       </c>
       <c r="I16">
-        <v>2.148559479951899</v>
+        <v>0.7149537458900284</v>
       </c>
       <c r="J16">
-        <v>2.861390790126507</v>
+        <v>0.5928549029896999</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>62.71719487060881</v>
+        <v>16.10896685032543</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.05667319197051768</v>
+        <v>0.01724891335767609</v>
       </c>
       <c r="D17">
-        <v>0.4636697031066888</v>
+        <v>0.2023053369495926</v>
       </c>
       <c r="E17">
-        <v>1.289840798318181</v>
+        <v>0.3381451110734446</v>
       </c>
       <c r="F17">
-        <v>2.129994870873645</v>
+        <v>1.015411623554556</v>
       </c>
       <c r="G17">
-        <v>2.821436430166727</v>
+        <v>0.804997757231007</v>
       </c>
       <c r="H17">
-        <v>1.165466960373863</v>
+        <v>0.8076896619134288</v>
       </c>
       <c r="I17">
-        <v>1.885556599324133</v>
+        <v>0.7171938294780063</v>
       </c>
       <c r="J17">
-        <v>2.586048323386763</v>
+        <v>0.571404139382139</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>58.05586375945478</v>
+        <v>15.48442002179331</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.0532776137598745</v>
+        <v>0.01706875379779405</v>
       </c>
       <c r="D18">
-        <v>0.4483296542624515</v>
+        <v>0.1994652324355002</v>
       </c>
       <c r="E18">
-        <v>1.227080572553106</v>
+        <v>0.3315851492935167</v>
       </c>
       <c r="F18">
-        <v>1.942101704942388</v>
+        <v>1.02535285708764</v>
       </c>
       <c r="G18">
-        <v>2.617872350531542</v>
+        <v>0.8066902536951659</v>
       </c>
       <c r="H18">
-        <v>1.079450615611421</v>
+        <v>0.8121418526945376</v>
       </c>
       <c r="I18">
-        <v>1.755770953948556</v>
+        <v>0.7186789105907181</v>
       </c>
       <c r="J18">
-        <v>2.448709452539248</v>
+        <v>0.5591083552816087</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>55.64442929262941</v>
+        <v>15.12514448472109</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.05220426128104805</v>
+        <v>0.01700807942354743</v>
       </c>
       <c r="D19">
-        <v>0.4433119408284085</v>
+        <v>0.1985039919918847</v>
       </c>
       <c r="E19">
-        <v>1.206995137466436</v>
+        <v>0.3293671770842508</v>
       </c>
       <c r="F19">
-        <v>1.883247997138966</v>
+        <v>1.028774741294022</v>
       </c>
       <c r="G19">
-        <v>2.553469197969349</v>
+        <v>0.8073106605572065</v>
       </c>
       <c r="H19">
-        <v>1.052379363476604</v>
+        <v>0.8136786430443976</v>
       </c>
       <c r="I19">
-        <v>1.714661238059406</v>
+        <v>0.719215174750083</v>
       </c>
       <c r="J19">
-        <v>2.404926181985928</v>
+        <v>0.5549522635855624</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>54.86307948440185</v>
+        <v>15.00348859574927</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0573429310683693</v>
+        <v>0.0172824121636026</v>
       </c>
       <c r="D20">
-        <v>0.4666042186417911</v>
+        <v>0.2028311534361364</v>
       </c>
       <c r="E20">
-        <v>1.302086363029616</v>
+        <v>0.3393607109364183</v>
       </c>
       <c r="F20">
-        <v>2.167328596217843</v>
+        <v>1.013598427796182</v>
       </c>
       <c r="G20">
-        <v>2.861536099716005</v>
+        <v>0.8047071325291313</v>
       </c>
       <c r="H20">
-        <v>1.182486879350563</v>
+        <v>0.8068796609075264</v>
       </c>
       <c r="I20">
-        <v>1.911095700048804</v>
+        <v>0.7169349375235328</v>
       </c>
       <c r="J20">
-        <v>2.612936733555955</v>
+        <v>0.5736832052066347</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>58.52109769084802</v>
+        <v>15.55090899995321</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08673448046356214</v>
+        <v>0.01822742383949105</v>
       </c>
       <c r="D21">
-        <v>0.5732182853006975</v>
+        <v>0.2173962949703707</v>
       </c>
       <c r="E21">
-        <v>1.807415027626249</v>
+        <v>0.3731651796871915</v>
       </c>
       <c r="F21">
-        <v>3.846367930395616</v>
+        <v>0.9665771928908526</v>
       </c>
       <c r="G21">
-        <v>4.57735095617565</v>
+        <v>0.7993297783727655</v>
       </c>
       <c r="H21">
-        <v>1.927761862505577</v>
+        <v>0.7861122440234567</v>
       </c>
       <c r="I21">
-        <v>2.995873228856979</v>
+        <v>0.7116480480232639</v>
       </c>
       <c r="J21">
-        <v>3.744199107154117</v>
+        <v>0.6371341232034808</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>76.2668351997159</v>
+        <v>17.38971439163328</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08673448046356214</v>
+        <v>0.01886327734367654</v>
       </c>
       <c r="D22">
-        <v>0.5732182853006975</v>
+        <v>0.2269361570177182</v>
       </c>
       <c r="E22">
-        <v>1.807415027626249</v>
+        <v>0.3954411054839397</v>
       </c>
       <c r="F22">
-        <v>3.846367930395616</v>
+        <v>0.9388962683769932</v>
       </c>
       <c r="G22">
-        <v>4.57735095617565</v>
+        <v>0.798417994529899</v>
       </c>
       <c r="H22">
-        <v>1.927761862505577</v>
+        <v>0.7741278856351812</v>
       </c>
       <c r="I22">
-        <v>2.995873228856979</v>
+        <v>0.7100200064232354</v>
       </c>
       <c r="J22">
-        <v>3.744199107154117</v>
+        <v>0.6790219651729785</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>76.2668351997159</v>
+        <v>18.59156285596544</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08673448046356214</v>
+        <v>0.01852218386840576</v>
       </c>
       <c r="D23">
-        <v>0.5732182853006975</v>
+        <v>0.221842590145144</v>
       </c>
       <c r="E23">
-        <v>1.807415027626249</v>
+        <v>0.3835344247531225</v>
       </c>
       <c r="F23">
-        <v>3.846367930395616</v>
+        <v>0.9533850074419234</v>
       </c>
       <c r="G23">
-        <v>4.57735095617565</v>
+        <v>0.798660564670655</v>
       </c>
       <c r="H23">
-        <v>1.927761862505577</v>
+        <v>0.7803761612723008</v>
       </c>
       <c r="I23">
-        <v>2.995873228856979</v>
+        <v>0.7107179737914464</v>
       </c>
       <c r="J23">
-        <v>3.744199107154117</v>
+        <v>0.6566250831826892</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>76.2668351997159</v>
+        <v>17.95007797062914</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08673448046356214</v>
+        <v>0.01726726164812931</v>
       </c>
       <c r="D24">
-        <v>0.5732182853006975</v>
+        <v>0.2025934290217037</v>
       </c>
       <c r="E24">
-        <v>1.807415027626249</v>
+        <v>0.3388110898253274</v>
       </c>
       <c r="F24">
-        <v>3.846367930395616</v>
+        <v>1.014417137021965</v>
       </c>
       <c r="G24">
-        <v>4.57735095617565</v>
+        <v>0.8048376549386376</v>
       </c>
       <c r="H24">
-        <v>1.927761862505577</v>
+        <v>0.8072453202719316</v>
       </c>
       <c r="I24">
-        <v>2.995873228856979</v>
+        <v>0.7170513690931273</v>
       </c>
       <c r="J24">
-        <v>3.744199107154117</v>
+        <v>0.5726527261905687</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>76.2668351997159</v>
+        <v>15.52085000930197</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08673448046356214</v>
+        <v>0.01598637786256774</v>
       </c>
       <c r="D25">
-        <v>0.5732182853006975</v>
+        <v>0.1819130932251483</v>
       </c>
       <c r="E25">
-        <v>1.807415027626249</v>
+        <v>0.2912714730620536</v>
       </c>
       <c r="F25">
-        <v>3.846367930395616</v>
+        <v>1.092756530483513</v>
       </c>
       <c r="G25">
-        <v>4.57735095617565</v>
+        <v>0.8220925342952512</v>
       </c>
       <c r="H25">
-        <v>1.927761862505577</v>
+        <v>0.8427851921260441</v>
       </c>
       <c r="I25">
-        <v>2.995873228856979</v>
+        <v>0.7313588421243438</v>
       </c>
       <c r="J25">
-        <v>3.744199107154117</v>
+        <v>0.4836633939982278</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>76.2668351997159</v>
+        <v>12.89824806121686</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_170/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_170/res_line/pl_mw.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01509998495488674</v>
+        <v>0.02849078099418989</v>
       </c>
       <c r="D2">
-        <v>0.1667493158925453</v>
+        <v>0.3042411732013619</v>
       </c>
       <c r="E2">
-        <v>0.2567807369960775</v>
+        <v>0.7217998869475224</v>
       </c>
       <c r="F2">
-        <v>1.160573058580006</v>
+        <v>0.7080380266728525</v>
       </c>
       <c r="G2">
-        <v>0.8432839204109825</v>
+        <v>1.160351986372163</v>
       </c>
       <c r="H2">
-        <v>0.8743153596641946</v>
+        <v>0.493533564475058</v>
       </c>
       <c r="I2">
-        <v>0.7479278897184827</v>
+        <v>0.8191922331520942</v>
       </c>
       <c r="J2">
-        <v>0.4192787400100997</v>
+        <v>1.376150761266445</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>10.9622247095927</v>
+        <v>34.52880685275488</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01453200457124382</v>
+        <v>0.02353380515748427</v>
       </c>
       <c r="D3">
-        <v>0.1565091770063134</v>
+        <v>0.2654015050031688</v>
       </c>
       <c r="E3">
-        <v>0.2336856282998809</v>
+        <v>0.6059631989278458</v>
       </c>
       <c r="F3">
-        <v>1.212554290379188</v>
+        <v>0.5184803381593852</v>
       </c>
       <c r="G3">
-        <v>0.8626374261524177</v>
+        <v>0.8931252489549308</v>
       </c>
       <c r="H3">
-        <v>0.8988939228847528</v>
+        <v>0.397398241654372</v>
       </c>
       <c r="I3">
-        <v>0.7627294601680461</v>
+        <v>0.6459044529394475</v>
       </c>
       <c r="J3">
-        <v>0.3762519443778274</v>
+        <v>1.139897083773519</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>9.645719339023458</v>
+        <v>29.24163755822394</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01419861944958711</v>
+        <v>0.02086999285701552</v>
       </c>
       <c r="D4">
-        <v>0.1502392157268986</v>
+        <v>0.2424105313056089</v>
       </c>
       <c r="E4">
-        <v>0.2196314938467196</v>
+        <v>0.5405642647328222</v>
       </c>
       <c r="F4">
-        <v>1.247343426654027</v>
+        <v>0.4317595411010799</v>
       </c>
       <c r="G4">
-        <v>0.8768852520360468</v>
+        <v>0.7577298378165978</v>
       </c>
       <c r="H4">
-        <v>0.9155250563511572</v>
+        <v>0.3518718882997831</v>
       </c>
       <c r="I4">
-        <v>0.7735178989497911</v>
+        <v>0.5579048435867335</v>
       </c>
       <c r="J4">
-        <v>0.35010256972555</v>
+        <v>1.008314618429381</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.834820259949765</v>
+        <v>26.17755569357189</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0140665178752144</v>
+        <v>0.01985536469305771</v>
       </c>
       <c r="D5">
-        <v>0.1476885769251908</v>
+        <v>0.2331992877867179</v>
       </c>
       <c r="E5">
-        <v>0.2139346389647727</v>
+        <v>0.5149758618097309</v>
       </c>
       <c r="F5">
-        <v>1.262228232202077</v>
+        <v>0.4022200956220274</v>
       </c>
       <c r="G5">
-        <v>0.8832717464590161</v>
+        <v>0.7081525692816371</v>
       </c>
       <c r="H5">
-        <v>0.9226831557936066</v>
+        <v>0.3359834985670886</v>
       </c>
       <c r="I5">
-        <v>0.7783327691857451</v>
+        <v>0.5256517501921323</v>
       </c>
       <c r="J5">
-        <v>0.339510221410535</v>
+        <v>0.9571977457461003</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.503685594311264</v>
+        <v>24.96253516624688</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01404480637508954</v>
+        <v>0.01969059729709244</v>
       </c>
       <c r="D6">
-        <v>0.1472653133601369</v>
+        <v>0.2316779481566869</v>
       </c>
       <c r="E6">
-        <v>0.2129904718546243</v>
+        <v>0.5107822945284184</v>
       </c>
       <c r="F6">
-        <v>1.264742185929649</v>
+        <v>0.3976261651179982</v>
       </c>
       <c r="G6">
-        <v>0.884366861250129</v>
+        <v>0.7002200555520375</v>
       </c>
       <c r="H6">
-        <v>0.9238945649214116</v>
+        <v>0.333488794564829</v>
       </c>
       <c r="I6">
-        <v>0.7791572890568901</v>
+        <v>0.5204898101092112</v>
       </c>
       <c r="J6">
-        <v>0.3377551090127326</v>
+        <v>0.948840451513604</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.448658298327871</v>
+        <v>24.76252494843482</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01419682280996426</v>
+        <v>0.02085604885013481</v>
       </c>
       <c r="D7">
-        <v>0.1502047989767732</v>
+        <v>0.2422857293918099</v>
       </c>
       <c r="E7">
-        <v>0.2195545431317996</v>
+        <v>0.5402152800978968</v>
       </c>
       <c r="F7">
-        <v>1.247541320664041</v>
+        <v>0.4313395059481735</v>
       </c>
       <c r="G7">
-        <v>0.8769690511858954</v>
+        <v>0.7570403419879028</v>
       </c>
       <c r="H7">
-        <v>0.9156200596305553</v>
+        <v>0.3516476333705754</v>
       </c>
       <c r="I7">
-        <v>0.7735811513408919</v>
+        <v>0.5574563882778847</v>
       </c>
       <c r="J7">
-        <v>0.3499594645880109</v>
+        <v>1.007616062188703</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>8.83035729583321</v>
+        <v>26.16104678637379</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01490089162074071</v>
+        <v>0.02668498298952926</v>
       </c>
       <c r="D8">
-        <v>0.1632148744426303</v>
+        <v>0.2906298976554353</v>
       </c>
       <c r="E8">
-        <v>0.2487903938478411</v>
+        <v>0.6803984180671137</v>
       </c>
       <c r="F8">
-        <v>1.177891311432866</v>
+        <v>0.6353343190592398</v>
       </c>
       <c r="G8">
-        <v>0.849457582398955</v>
+        <v>1.0611083845736</v>
       </c>
       <c r="H8">
-        <v>0.8824665755510921</v>
+        <v>0.4570631967291234</v>
       </c>
       <c r="I8">
-        <v>0.7526731091818561</v>
+        <v>0.7548983088710841</v>
       </c>
       <c r="J8">
-        <v>0.4043847226512014</v>
+        <v>1.29125386547301</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>10.50879697590932</v>
+        <v>32.65921028726984</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01640866313633893</v>
+        <v>0.0430316785101752</v>
       </c>
       <c r="D9">
-        <v>0.1888690344609074</v>
+        <v>0.3966401703766707</v>
       </c>
       <c r="E9">
-        <v>0.3071999425101239</v>
+        <v>1.029791641623305</v>
       </c>
       <c r="F9">
-        <v>1.064752511115032</v>
+        <v>1.394460863534405</v>
       </c>
       <c r="G9">
-        <v>0.8149209456678221</v>
+        <v>2.004170757450908</v>
       </c>
       <c r="H9">
-        <v>0.8299623102788445</v>
+        <v>0.8248398919788542</v>
       </c>
       <c r="I9">
-        <v>0.7255759725060713</v>
+        <v>1.363053411197157</v>
       </c>
       <c r="J9">
-        <v>0.513448377316962</v>
+        <v>2.022473162911041</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.78226485224189</v>
+        <v>47.76506952401598</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01760186035081546</v>
+        <v>0.06450160800115157</v>
       </c>
       <c r="D10">
-        <v>0.2078111265351765</v>
+        <v>0.496280577527358</v>
       </c>
       <c r="E10">
-        <v>0.3508902711183026</v>
+        <v>1.43051320358262</v>
       </c>
       <c r="F10">
-        <v>0.9968375219392982</v>
+        <v>2.570749459688983</v>
       </c>
       <c r="G10">
-        <v>0.8022975816409144</v>
+        <v>3.288361883831612</v>
       </c>
       <c r="H10">
-        <v>0.7994230584910724</v>
+        <v>1.365011619477741</v>
       </c>
       <c r="I10">
-        <v>0.7147250382995907</v>
+        <v>2.182395420554727</v>
       </c>
       <c r="J10">
-        <v>0.5953084369811279</v>
+        <v>2.896623643106807</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.18022664409892</v>
+        <v>63.29762739886161</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01816514429425808</v>
+        <v>0.08350235887861146</v>
       </c>
       <c r="D11">
-        <v>0.2164513094042491</v>
+        <v>0.5631649646063153</v>
       </c>
       <c r="E11">
-        <v>0.3709643270364467</v>
+        <v>1.754229039139915</v>
       </c>
       <c r="F11">
-        <v>0.9694482580049026</v>
+        <v>3.660557777898646</v>
       </c>
       <c r="G11">
-        <v>0.799528438829185</v>
+        <v>4.394348216679703</v>
       </c>
       <c r="H11">
-        <v>0.78736622679682</v>
+        <v>1.847023179384166</v>
       </c>
       <c r="I11">
-        <v>0.7118853405888785</v>
+        <v>2.880908419849007</v>
       </c>
       <c r="J11">
-        <v>0.6329988810644807</v>
+        <v>3.623456678702212</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>17.27056655318995</v>
+        <v>74.52860104292768</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.0183815612331415</v>
+        <v>0.09779468148229853</v>
       </c>
       <c r="D12">
-        <v>0.2197266915462421</v>
+        <v>0.6054537983550006</v>
       </c>
       <c r="E12">
-        <v>0.378597065916324</v>
+        <v>1.986437847914473</v>
       </c>
       <c r="F12">
-        <v>0.9595983540351654</v>
+        <v>4.4791639622253</v>
       </c>
       <c r="G12">
-        <v>0.7989248775939757</v>
+        <v>5.19031123345826</v>
       </c>
       <c r="H12">
-        <v>0.7830724104677529</v>
+        <v>2.199792731708072</v>
       </c>
       <c r="I12">
-        <v>0.711122570383651</v>
+        <v>3.379655612967753</v>
       </c>
       <c r="J12">
-        <v>0.6473427580752968</v>
+        <v>4.152729588207535</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.68346161158689</v>
+        <v>81.90564168231703</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01833481072044663</v>
+        <v>0.09372759555846955</v>
       </c>
       <c r="D13">
-        <v>0.2190211190474542</v>
+        <v>0.5939557098928532</v>
       </c>
       <c r="E13">
-        <v>0.3769517926038759</v>
+        <v>1.921089089932835</v>
       </c>
       <c r="F13">
-        <v>0.9616962111442007</v>
+        <v>4.247186563744805</v>
       </c>
       <c r="G13">
-        <v>0.7990347869888694</v>
+        <v>4.967378438391023</v>
       </c>
       <c r="H13">
-        <v>0.7839849422094289</v>
+        <v>2.100588267693979</v>
       </c>
       <c r="I13">
-        <v>0.7112727650107047</v>
+        <v>3.24030601281801</v>
       </c>
       <c r="J13">
-        <v>0.6442502695490191</v>
+        <v>4.003258581245433</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>17.59453561829969</v>
+        <v>79.88462496014102</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01818288565033299</v>
+        <v>0.08437951687459133</v>
       </c>
       <c r="D14">
-        <v>0.2167207051147386</v>
+        <v>0.565925064829301</v>
       </c>
       <c r="E14">
-        <v>0.3715916381482884</v>
+        <v>1.768707362112792</v>
       </c>
       <c r="F14">
-        <v>0.9686273390829001</v>
+        <v>3.711006686360221</v>
       </c>
       <c r="G14">
-        <v>0.7994697618008502</v>
+        <v>4.444177995909968</v>
       </c>
       <c r="H14">
-        <v>0.7870074777910077</v>
+        <v>1.868983827062749</v>
       </c>
       <c r="I14">
-        <v>0.7118162580688647</v>
+        <v>2.912229511860829</v>
       </c>
       <c r="J14">
-        <v>0.6341774930824045</v>
+        <v>3.656293483953078</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>17.30453505634006</v>
+        <v>75.00469801571495</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01809023777650509</v>
+        <v>0.08010391408136996</v>
       </c>
       <c r="D15">
-        <v>0.215312101117263</v>
+        <v>0.5522346332610937</v>
       </c>
       <c r="E15">
-        <v>0.3683125203380655</v>
+        <v>1.697802209908801</v>
       </c>
       <c r="F15">
-        <v>0.9729413461126768</v>
+        <v>3.465012403145153</v>
       </c>
       <c r="G15">
-        <v>0.7997946840604868</v>
+        <v>4.200161781901414</v>
       </c>
       <c r="H15">
-        <v>0.788894508259034</v>
+        <v>1.761619579773225</v>
       </c>
       <c r="I15">
-        <v>0.7121902030949201</v>
+        <v>2.758726732635097</v>
       </c>
       <c r="J15">
-        <v>0.6280171110579715</v>
+        <v>3.495719608341318</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>17.12690473414119</v>
+        <v>72.65210261653033</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.0175654747758216</v>
+        <v>0.06360369661869214</v>
       </c>
       <c r="D16">
-        <v>0.2072469540159716</v>
+        <v>0.4927172797694652</v>
       </c>
       <c r="E16">
-        <v>0.3495825998969053</v>
+        <v>1.414635929976868</v>
       </c>
       <c r="F16">
-        <v>0.9986995181955791</v>
+        <v>2.519779953121258</v>
       </c>
       <c r="G16">
-        <v>0.8025398653117861</v>
+        <v>3.235044832232035</v>
       </c>
       <c r="H16">
-        <v>0.8002486068158703</v>
+        <v>1.342085055765267</v>
       </c>
       <c r="I16">
-        <v>0.7149537458900284</v>
+        <v>2.148559479951842</v>
       </c>
       <c r="J16">
-        <v>0.5928549029896999</v>
+        <v>2.861390790126478</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.10896685032543</v>
+        <v>62.71719487060864</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01724891335767609</v>
+        <v>0.056673191970674</v>
       </c>
       <c r="D17">
-        <v>0.2023053369495926</v>
+        <v>0.4636697031067598</v>
       </c>
       <c r="E17">
-        <v>0.3381451110734446</v>
+        <v>1.289840798318181</v>
       </c>
       <c r="F17">
-        <v>1.015411623554556</v>
+        <v>2.129994870873645</v>
       </c>
       <c r="G17">
-        <v>0.804997757231007</v>
+        <v>2.821436430166727</v>
       </c>
       <c r="H17">
-        <v>0.8076896619134288</v>
+        <v>1.165466960374005</v>
       </c>
       <c r="I17">
-        <v>0.7171938294780063</v>
+        <v>1.885556599324133</v>
       </c>
       <c r="J17">
-        <v>0.571404139382139</v>
+        <v>2.586048323386706</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>15.48442002179331</v>
+        <v>58.05586375945472</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01706875379779405</v>
+        <v>0.05327761375971818</v>
       </c>
       <c r="D18">
-        <v>0.1994652324355002</v>
+        <v>0.4483296542625368</v>
       </c>
       <c r="E18">
-        <v>0.3315851492935167</v>
+        <v>1.22708057255312</v>
       </c>
       <c r="F18">
-        <v>1.02535285708764</v>
+        <v>1.942101704942345</v>
       </c>
       <c r="G18">
-        <v>0.8066902536951659</v>
+        <v>2.617872350531485</v>
       </c>
       <c r="H18">
-        <v>0.8121418526945376</v>
+        <v>1.079450615611421</v>
       </c>
       <c r="I18">
-        <v>0.7186789105907181</v>
+        <v>1.755770953948527</v>
       </c>
       <c r="J18">
-        <v>0.5591083552816087</v>
+        <v>2.448709452539305</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>15.12514448472109</v>
+        <v>55.64442929262952</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01700807942354743</v>
+        <v>0.05220426128115463</v>
       </c>
       <c r="D19">
-        <v>0.1985039919918847</v>
+        <v>0.4433119408284654</v>
       </c>
       <c r="E19">
-        <v>0.3293671770842508</v>
+        <v>1.206995137466421</v>
       </c>
       <c r="F19">
-        <v>1.028774741294022</v>
+        <v>1.883247997139023</v>
       </c>
       <c r="G19">
-        <v>0.8073106605572065</v>
+        <v>2.553469197969406</v>
       </c>
       <c r="H19">
-        <v>0.8136786430443976</v>
+        <v>1.052379363476632</v>
       </c>
       <c r="I19">
-        <v>0.719215174750083</v>
+        <v>1.714661238059435</v>
       </c>
       <c r="J19">
-        <v>0.5549522635855624</v>
+        <v>2.404926181985985</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>15.00348859574927</v>
+        <v>54.86307948440185</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0172824121636026</v>
+        <v>0.05734293106826982</v>
       </c>
       <c r="D20">
-        <v>0.2028311534361364</v>
+        <v>0.4666042186416774</v>
       </c>
       <c r="E20">
-        <v>0.3393607109364183</v>
+        <v>1.302086363029602</v>
       </c>
       <c r="F20">
-        <v>1.013598427796182</v>
+        <v>2.167328596217828</v>
       </c>
       <c r="G20">
-        <v>0.8047071325291313</v>
+        <v>2.86153609971592</v>
       </c>
       <c r="H20">
-        <v>0.8068796609075264</v>
+        <v>1.182486879350506</v>
       </c>
       <c r="I20">
-        <v>0.7169349375235328</v>
+        <v>1.91109570004879</v>
       </c>
       <c r="J20">
-        <v>0.5736832052066347</v>
+        <v>2.612936733555898</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>15.55090899995321</v>
+        <v>58.5210976908478</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01822742383949105</v>
+        <v>0.08673448046372556</v>
       </c>
       <c r="D21">
-        <v>0.2173962949703707</v>
+        <v>0.5732182853008112</v>
       </c>
       <c r="E21">
-        <v>0.3731651796871915</v>
+        <v>1.80741502762622</v>
       </c>
       <c r="F21">
-        <v>0.9665771928908526</v>
+        <v>3.846367930395473</v>
       </c>
       <c r="G21">
-        <v>0.7993297783727655</v>
+        <v>4.577350956175536</v>
       </c>
       <c r="H21">
-        <v>0.7861122440234567</v>
+        <v>1.927761862505548</v>
       </c>
       <c r="I21">
-        <v>0.7116480480232639</v>
+        <v>2.995873228856894</v>
       </c>
       <c r="J21">
-        <v>0.6371341232034808</v>
+        <v>3.744199107154202</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>17.38971439163328</v>
+        <v>76.26683519971544</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01886327734367654</v>
+        <v>0.08673448046372556</v>
       </c>
       <c r="D22">
-        <v>0.2269361570177182</v>
+        <v>0.5732182853008112</v>
       </c>
       <c r="E22">
-        <v>0.3954411054839397</v>
+        <v>1.80741502762622</v>
       </c>
       <c r="F22">
-        <v>0.9388962683769932</v>
+        <v>3.846367930395473</v>
       </c>
       <c r="G22">
-        <v>0.798417994529899</v>
+        <v>4.577350956175536</v>
       </c>
       <c r="H22">
-        <v>0.7741278856351812</v>
+        <v>1.927761862505548</v>
       </c>
       <c r="I22">
-        <v>0.7100200064232354</v>
+        <v>2.995873228856894</v>
       </c>
       <c r="J22">
-        <v>0.6790219651729785</v>
+        <v>3.744199107154202</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.59156285596544</v>
+        <v>76.26683519971544</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01852218386840576</v>
+        <v>0.08673448046372556</v>
       </c>
       <c r="D23">
-        <v>0.221842590145144</v>
+        <v>0.5732182853008112</v>
       </c>
       <c r="E23">
-        <v>0.3835344247531225</v>
+        <v>1.80741502762622</v>
       </c>
       <c r="F23">
-        <v>0.9533850074419234</v>
+        <v>3.846367930395473</v>
       </c>
       <c r="G23">
-        <v>0.798660564670655</v>
+        <v>4.577350956175536</v>
       </c>
       <c r="H23">
-        <v>0.7803761612723008</v>
+        <v>1.927761862505548</v>
       </c>
       <c r="I23">
-        <v>0.7107179737914464</v>
+        <v>2.995873228856894</v>
       </c>
       <c r="J23">
-        <v>0.6566250831826892</v>
+        <v>3.744199107154202</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.95007797062914</v>
+        <v>76.26683519971544</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01726726164812931</v>
+        <v>0.08673448046372556</v>
       </c>
       <c r="D24">
-        <v>0.2025934290217037</v>
+        <v>0.5732182853008112</v>
       </c>
       <c r="E24">
-        <v>0.3388110898253274</v>
+        <v>1.80741502762622</v>
       </c>
       <c r="F24">
-        <v>1.014417137021965</v>
+        <v>3.846367930395473</v>
       </c>
       <c r="G24">
-        <v>0.8048376549386376</v>
+        <v>4.577350956175536</v>
       </c>
       <c r="H24">
-        <v>0.8072453202719316</v>
+        <v>1.927761862505548</v>
       </c>
       <c r="I24">
-        <v>0.7170513690931273</v>
+        <v>2.995873228856894</v>
       </c>
       <c r="J24">
-        <v>0.5726527261905687</v>
+        <v>3.744199107154202</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>15.52085000930197</v>
+        <v>76.26683519971544</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01598637786256774</v>
+        <v>0.08673448046372556</v>
       </c>
       <c r="D25">
-        <v>0.1819130932251483</v>
+        <v>0.5732182853008112</v>
       </c>
       <c r="E25">
-        <v>0.2912714730620536</v>
+        <v>1.80741502762622</v>
       </c>
       <c r="F25">
-        <v>1.092756530483513</v>
+        <v>3.846367930395473</v>
       </c>
       <c r="G25">
-        <v>0.8220925342952512</v>
+        <v>4.577350956175536</v>
       </c>
       <c r="H25">
-        <v>0.8427851921260441</v>
+        <v>1.927761862505548</v>
       </c>
       <c r="I25">
-        <v>0.7313588421243438</v>
+        <v>2.995873228856894</v>
       </c>
       <c r="J25">
-        <v>0.4836633939982278</v>
+        <v>3.744199107154202</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.89824806121686</v>
+        <v>76.26683519971544</v>
       </c>
       <c r="N25">
         <v>0</v>
